--- a/database/industries/folad/hormoz/cost/quarterly.xlsx
+++ b/database/industries/folad/hormoz/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\hormoz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\hormoz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6E10CE-BA01-4AF8-BEC0-50BCA6358A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -274,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +460,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -456,7 +472,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -503,6 +519,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -538,6 +571,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,19 +739,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -710,8 +758,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,8 +775,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,8 +792,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +807,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -756,8 +824,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -768,8 +841,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -778,8 +856,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -800,8 +883,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -810,164 +908,274 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>9741739</v>
+      </c>
+      <c r="F10" s="9">
+        <v>16085745</v>
+      </c>
+      <c r="G10" s="9">
+        <v>22103522</v>
+      </c>
+      <c r="H10" s="9">
+        <v>21314450</v>
+      </c>
+      <c r="I10" s="9">
+        <v>20706698</v>
+      </c>
+      <c r="J10" s="9">
         <v>28802454</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>27993899</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>31350169</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>17752039</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>37627743</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>136831</v>
+      </c>
+      <c r="F11" s="11">
+        <v>175635</v>
+      </c>
+      <c r="G11" s="11">
+        <v>222221</v>
+      </c>
+      <c r="H11" s="11">
+        <v>276838</v>
+      </c>
+      <c r="I11" s="11">
+        <v>288313</v>
+      </c>
+      <c r="J11" s="11">
         <v>249514</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>278011</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>490141</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>355912</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>371442</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>5831007</v>
+      </c>
+      <c r="F12" s="9">
+        <v>7993687</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8455335</v>
+      </c>
+      <c r="H12" s="9">
+        <v>19571144</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-2251613</v>
+      </c>
+      <c r="J12" s="9">
         <v>15217524</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>10236762</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>15051764</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>13293333</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>17164025</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>15709577</v>
+      </c>
+      <c r="F13" s="13">
+        <v>24255067</v>
+      </c>
+      <c r="G13" s="13">
+        <v>30781078</v>
+      </c>
+      <c r="H13" s="13">
+        <v>41162432</v>
+      </c>
+      <c r="I13" s="13">
+        <v>18743398</v>
+      </c>
+      <c r="J13" s="13">
         <v>44269492</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>38508672</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>46892074</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>31401284</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>55163210</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-51996</v>
+      </c>
+      <c r="F14" s="9">
+        <v>47995</v>
+      </c>
+      <c r="G14" s="9">
+        <v>195086</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-33655</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-2019314</v>
+      </c>
+      <c r="J14" s="9">
         <v>65569</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-442949</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-330873</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-3138410</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>900053</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>15657581</v>
+      </c>
+      <c r="F15" s="13">
+        <v>24303062</v>
+      </c>
+      <c r="G15" s="13">
+        <v>30976164</v>
+      </c>
+      <c r="H15" s="13">
+        <v>41128777</v>
+      </c>
+      <c r="I15" s="13">
+        <v>16724084</v>
+      </c>
+      <c r="J15" s="13">
         <v>44335061</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>38065723</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>46561201</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>28262874</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>56063263</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-567618</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-816510</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2134272</v>
+      </c>
+      <c r="H16" s="9">
+        <v>183361</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-61598</v>
+      </c>
+      <c r="J16" s="9">
         <v>236667</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>144535</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>265529</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-631466</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-2428992</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -986,32 +1194,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>15089963</v>
+      </c>
+      <c r="F18" s="15">
+        <v>23486552</v>
+      </c>
+      <c r="G18" s="15">
+        <v>33110436</v>
+      </c>
+      <c r="H18" s="15">
+        <v>41312138</v>
+      </c>
+      <c r="I18" s="15">
+        <v>16662486</v>
+      </c>
+      <c r="J18" s="15">
         <v>44571728</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>38210258</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>46826730</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>27631408</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>53634271</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1019,65 +1257,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>8450259</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11">
+        <v>11481953</v>
+      </c>
+      <c r="H19" s="11">
+        <v>11178551</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>25744431</v>
+      </c>
+      <c r="L19" s="11">
         <v>24669887</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>39048360</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>36709868</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-1215630</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-4879115</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-11178551</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-20442854</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3148682</v>
+      </c>
+      <c r="J20" s="9">
         <v>-8450259</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-24669887</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-39048360</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-36709868</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-45246311</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>13874333</v>
+      </c>
+      <c r="F21" s="13">
+        <v>18607437</v>
+      </c>
+      <c r="G21" s="13">
+        <v>33413838</v>
+      </c>
+      <c r="H21" s="13">
+        <v>32047835</v>
+      </c>
+      <c r="I21" s="13">
+        <v>19811168</v>
+      </c>
+      <c r="J21" s="13">
         <v>36121469</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>39284802</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>32448257</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>29969900</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>45097828</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1096,30 +1379,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>13874333</v>
+      </c>
+      <c r="F23" s="13">
+        <v>18607437</v>
+      </c>
+      <c r="G23" s="13">
+        <v>33413838</v>
+      </c>
+      <c r="H23" s="13">
+        <v>32047835</v>
+      </c>
+      <c r="I23" s="13">
+        <v>19811168</v>
+      </c>
+      <c r="J23" s="13">
         <v>36121469</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>39284802</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>32448257</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>29969900</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>45097828</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1128,8 +1441,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1138,8 +1456,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1148,10 +1471,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1170,8 +1498,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1180,161 +1523,256 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>581873</v>
+      </c>
+      <c r="F29" s="9">
+        <v>580665</v>
+      </c>
+      <c r="G29" s="9">
+        <v>675709</v>
+      </c>
+      <c r="H29" s="9">
+        <v>910355</v>
+      </c>
+      <c r="I29" s="9">
+        <v>987174</v>
+      </c>
+      <c r="J29" s="9">
         <v>1099063</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>1057776</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>967899</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>855242</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>679492</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G32" s="11">
         <v>0</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>3483</v>
+      </c>
+      <c r="G33" s="9">
+        <v>718</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3329</v>
+      </c>
+      <c r="I33" s="9">
+        <v>682</v>
+      </c>
+      <c r="J33" s="9">
         <v>2310</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>2865</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>3175</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>2406</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>1465</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>37370</v>
+      </c>
+      <c r="F34" s="11">
+        <v>26524</v>
+      </c>
+      <c r="G34" s="11">
+        <v>28884</v>
+      </c>
+      <c r="H34" s="11">
+        <v>24962</v>
+      </c>
+      <c r="I34" s="11">
+        <v>22084</v>
+      </c>
+      <c r="J34" s="11">
         <v>18271</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>17222</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>19745</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>5229</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>2441</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F35" s="9">
         <v>0</v>
@@ -1343,155 +1781,260 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
+        <v>201</v>
+      </c>
+      <c r="I35" s="9">
+        <v>53</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
         <v>82</v>
       </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>430</v>
+      </c>
+      <c r="F39" s="9">
+        <v>430</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1849</v>
+      </c>
+      <c r="I39" s="9">
+        <v>497</v>
+      </c>
+      <c r="J39" s="9">
         <v>1819</v>
       </c>
-      <c r="F39" s="9">
+      <c r="K39" s="9">
         <v>1819</v>
       </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
         <v>1921</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>1779</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
+        <v>619768</v>
+      </c>
+      <c r="F41" s="15">
+        <v>611102</v>
+      </c>
+      <c r="G41" s="15">
+        <v>705311</v>
+      </c>
+      <c r="H41" s="15">
+        <v>940696</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1010490</v>
+      </c>
+      <c r="J41" s="15">
         <v>1121463</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>1079682</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>990819</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>864880</v>
       </c>
-      <c r="I41" s="15">
+      <c r="N41" s="15">
         <v>685177</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1500,8 +2043,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1510,8 +2058,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1520,10 +2073,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1542,8 +2100,23 @@
       <c r="I45" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1552,318 +2125,518 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>585322</v>
+      </c>
+      <c r="F47" s="9">
+        <v>651194</v>
+      </c>
+      <c r="G47" s="9">
+        <v>1111274</v>
+      </c>
+      <c r="H47" s="9">
+        <v>783905</v>
+      </c>
+      <c r="I47" s="9">
+        <v>648450</v>
+      </c>
+      <c r="J47" s="9">
         <v>755107</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>559203</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>590844</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>235510</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>844009</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F50" s="11">
+        <v>100</v>
       </c>
       <c r="G50" s="11">
         <v>0</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
+        <v>13437</v>
+      </c>
+      <c r="F51" s="9">
+        <v>3261</v>
+      </c>
+      <c r="G51" s="9">
+        <v>15395</v>
+      </c>
+      <c r="H51" s="9">
+        <v>13468</v>
+      </c>
+      <c r="I51" s="9">
+        <v>4366</v>
+      </c>
+      <c r="J51" s="9">
         <v>3402</v>
       </c>
-      <c r="F51" s="9">
+      <c r="K51" s="9">
         <v>1780</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>272</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>583</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>30224</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
+        <v>45807</v>
+      </c>
+      <c r="F52" s="11">
+        <v>59951</v>
+      </c>
+      <c r="G52" s="11">
+        <v>56606</v>
+      </c>
+      <c r="H52" s="11">
+        <v>58803</v>
+      </c>
+      <c r="I52" s="11">
+        <v>27160</v>
+      </c>
+      <c r="J52" s="11">
         <v>58593</v>
       </c>
-      <c r="F52" s="11">
+      <c r="K52" s="11">
         <v>57435</v>
       </c>
-      <c r="G52" s="11">
+      <c r="L52" s="11">
         <v>43973</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>48762</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>70118</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>11677</v>
+      </c>
+      <c r="F53" s="9">
+        <v>6563</v>
+      </c>
+      <c r="G53" s="9">
+        <v>2554</v>
+      </c>
+      <c r="H53" s="9">
+        <v>5100</v>
+      </c>
+      <c r="I53" s="9">
+        <v>4917</v>
+      </c>
+      <c r="J53" s="9">
         <v>7361</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>6246</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>3501</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>281</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>6974</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F56" s="11">
+        <v>109710</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>958</v>
+      </c>
+      <c r="F57" s="9">
+        <v>718</v>
+      </c>
+      <c r="G57" s="9">
+        <v>3871</v>
+      </c>
+      <c r="H57" s="9">
+        <v>115</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1465</v>
+      </c>
+      <c r="J57" s="9">
         <v>633</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>1039</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>2260</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>315</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>-1057</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>657201</v>
+      </c>
+      <c r="F59" s="15">
+        <v>831497</v>
+      </c>
+      <c r="G59" s="15">
+        <v>1189700</v>
+      </c>
+      <c r="H59" s="15">
+        <v>861391</v>
+      </c>
+      <c r="I59" s="15">
+        <v>686358</v>
+      </c>
+      <c r="J59" s="15">
         <v>825096</v>
       </c>
-      <c r="F59" s="15">
+      <c r="K59" s="15">
         <v>625703</v>
       </c>
-      <c r="G59" s="15">
+      <c r="L59" s="15">
         <v>640850</v>
       </c>
-      <c r="H59" s="15">
+      <c r="M59" s="15">
         <v>285451</v>
       </c>
-      <c r="I59" s="15">
+      <c r="N59" s="15">
         <v>950268</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1872,8 +2645,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1882,8 +2660,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1892,10 +2675,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1914,8 +2702,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1924,318 +2727,518 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>586530</v>
+      </c>
+      <c r="F65" s="9">
+        <v>556150</v>
+      </c>
+      <c r="G65" s="9">
+        <v>876628</v>
+      </c>
+      <c r="H65" s="9">
+        <v>707086</v>
+      </c>
+      <c r="I65" s="9">
+        <v>536561</v>
+      </c>
+      <c r="J65" s="9">
         <v>796394</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>649080</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>703501</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>411260</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>770837</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F68" s="11">
+        <v>100</v>
       </c>
       <c r="G68" s="11">
         <v>0</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" s="11">
+        <v>0</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>9954</v>
+      </c>
+      <c r="F69" s="9">
+        <v>6026</v>
+      </c>
+      <c r="G69" s="9">
+        <v>12784</v>
+      </c>
+      <c r="H69" s="9">
+        <v>16115</v>
+      </c>
+      <c r="I69" s="9">
+        <v>2738</v>
+      </c>
+      <c r="J69" s="9">
         <v>2847</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>1470</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>1041</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>1524</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>1105</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>56653</v>
+      </c>
+      <c r="F70" s="11">
+        <v>57591</v>
+      </c>
+      <c r="G70" s="11">
+        <v>60528</v>
+      </c>
+      <c r="H70" s="11">
+        <v>61681</v>
+      </c>
+      <c r="I70" s="11">
+        <v>30974</v>
+      </c>
+      <c r="J70" s="11">
         <v>59642</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>54912</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>58489</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>51550</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>60208</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>11772</v>
+      </c>
+      <c r="F71" s="9">
+        <v>6563</v>
+      </c>
+      <c r="G71" s="9">
+        <v>2353</v>
+      </c>
+      <c r="H71" s="9">
+        <v>5248</v>
+      </c>
+      <c r="I71" s="9">
+        <v>4970</v>
+      </c>
+      <c r="J71" s="9">
         <v>7361</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>6246</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>3419</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>363</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>6974</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F74" s="11">
+        <v>109710</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>958</v>
+      </c>
+      <c r="F75" s="9">
+        <v>1148</v>
+      </c>
+      <c r="G75" s="9">
+        <v>2022</v>
+      </c>
+      <c r="H75" s="9">
+        <v>1467</v>
+      </c>
+      <c r="I75" s="9">
+        <v>143</v>
+      </c>
+      <c r="J75" s="9">
         <v>633</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>938</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>339</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>457</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>1035</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
+        <v>665867</v>
+      </c>
+      <c r="F77" s="15">
+        <v>737288</v>
+      </c>
+      <c r="G77" s="15">
+        <v>954315</v>
+      </c>
+      <c r="H77" s="15">
+        <v>791597</v>
+      </c>
+      <c r="I77" s="15">
+        <v>575386</v>
+      </c>
+      <c r="J77" s="15">
         <v>866877</v>
       </c>
-      <c r="F77" s="15">
+      <c r="K77" s="15">
         <v>712646</v>
       </c>
-      <c r="G77" s="15">
+      <c r="L77" s="15">
         <v>766789</v>
       </c>
-      <c r="H77" s="15">
+      <c r="M77" s="15">
         <v>465154</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>840159</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2244,8 +3247,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2254,8 +3262,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2264,10 +3277,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2286,8 +3304,23 @@
       <c r="I81" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2296,157 +3329,252 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>580665</v>
+      </c>
+      <c r="F83" s="9">
+        <v>675709</v>
+      </c>
+      <c r="G83" s="9">
+        <v>910355</v>
+      </c>
+      <c r="H83" s="9">
+        <v>987174</v>
+      </c>
+      <c r="I83" s="9">
+        <v>1099063</v>
+      </c>
+      <c r="J83" s="9">
         <v>1057776</v>
       </c>
-      <c r="F83" s="9">
+      <c r="K83" s="9">
         <v>967899</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>855242</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>679492</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>752664</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>27</v>
+      <c r="E84" s="11">
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
       </c>
       <c r="G86" s="11">
         <v>0</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" s="11">
+        <v>0</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>3483</v>
+      </c>
+      <c r="F87" s="9">
+        <v>718</v>
+      </c>
+      <c r="G87" s="9">
+        <v>3329</v>
+      </c>
+      <c r="H87" s="9">
+        <v>682</v>
+      </c>
+      <c r="I87" s="9">
+        <v>2310</v>
+      </c>
+      <c r="J87" s="9">
         <v>2865</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>3175</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>2406</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>1465</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>30584</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>26524</v>
+      </c>
+      <c r="F88" s="11">
+        <v>28884</v>
+      </c>
+      <c r="G88" s="11">
+        <v>24962</v>
+      </c>
+      <c r="H88" s="11">
+        <v>22084</v>
+      </c>
+      <c r="I88" s="11">
+        <v>18271</v>
+      </c>
+      <c r="J88" s="11">
         <v>17222</v>
       </c>
-      <c r="F88" s="11">
+      <c r="K88" s="11">
         <v>19745</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>5229</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>2441</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>12351</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
@@ -2456,158 +3584,263 @@
         <v>0</v>
       </c>
       <c r="G89" s="9">
+        <v>201</v>
+      </c>
+      <c r="H89" s="9">
+        <v>53</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="9">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9">
         <v>82</v>
       </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M89" s="9">
+        <v>0</v>
+      </c>
+      <c r="N89" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>27</v>
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>27</v>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>430</v>
+      </c>
+      <c r="F93" s="9">
+        <v>0</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1849</v>
+      </c>
+      <c r="H93" s="9">
+        <v>497</v>
+      </c>
+      <c r="I93" s="9">
         <v>1819</v>
       </c>
-      <c r="F93" s="9">
+      <c r="J93" s="9">
+        <v>1819</v>
+      </c>
+      <c r="K93" s="9">
         <v>1920</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>1921</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>1779</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>1607</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>611102</v>
+      </c>
+      <c r="F95" s="15">
+        <v>705311</v>
+      </c>
+      <c r="G95" s="15">
+        <v>940696</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1010490</v>
+      </c>
+      <c r="I95" s="15">
+        <v>1121463</v>
+      </c>
+      <c r="J95" s="15">
         <v>1079682</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>992739</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>864880</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>685177</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>797206</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2616,8 +3849,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2626,8 +3864,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2636,10 +3879,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2658,8 +3906,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2668,318 +3931,518 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>6920297</v>
+      </c>
+      <c r="F101" s="9">
+        <v>8599151</v>
+      </c>
+      <c r="G101" s="9">
+        <v>12747964</v>
+      </c>
+      <c r="H101" s="9">
+        <v>23976164</v>
+      </c>
+      <c r="I101" s="9">
+        <v>29452565</v>
+      </c>
+      <c r="J101" s="9">
         <v>35997382</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>37325025</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>37461461</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>33051079</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>26087319</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F102" s="11">
+        <v>0</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G104" s="11">
         <v>0</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" s="11">
+        <v>0</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>0</v>
+      </c>
+      <c r="F105" s="9">
+        <v>139155</v>
+      </c>
+      <c r="G105" s="9">
+        <v>24786</v>
+      </c>
+      <c r="H105" s="9">
+        <v>200063</v>
+      </c>
+      <c r="I105" s="9">
+        <v>58522</v>
+      </c>
+      <c r="J105" s="9">
         <v>149718</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>222196</v>
       </c>
-      <c r="G105" s="9">
+      <c r="L105" s="9">
         <v>274727</v>
       </c>
-      <c r="H105" s="9">
+      <c r="M105" s="9">
         <v>208936</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>128285</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>21488</v>
+      </c>
+      <c r="F106" s="11">
+        <v>15310</v>
+      </c>
+      <c r="G106" s="11">
+        <v>21294</v>
+      </c>
+      <c r="H106" s="11">
+        <v>24546</v>
+      </c>
+      <c r="I106" s="11">
+        <v>22507</v>
+      </c>
+      <c r="J106" s="11">
         <v>18633</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>28898</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>33846</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>11652</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>7447</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="F107" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="9">
         <v>0</v>
       </c>
       <c r="H107" s="9">
+        <v>1344</v>
+      </c>
+      <c r="I107" s="9">
+        <v>408</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
         <v>886</v>
       </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F109" s="9">
+        <v>0</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F110" s="11">
+        <v>0</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>4163</v>
+      </c>
+      <c r="F111" s="9">
+        <v>4163</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0</v>
+      </c>
+      <c r="H111" s="9">
+        <v>31131</v>
+      </c>
+      <c r="I111" s="9">
+        <v>35668</v>
+      </c>
+      <c r="J111" s="9">
         <v>33817</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>33817</v>
       </c>
-      <c r="G111" s="9">
-        <v>0</v>
-      </c>
-      <c r="H111" s="9">
+      <c r="L111" s="9">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9">
         <v>38017</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>37327</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
+        <v>6946257</v>
+      </c>
+      <c r="F113" s="15">
+        <v>8757780</v>
+      </c>
+      <c r="G113" s="15">
+        <v>12794044</v>
+      </c>
+      <c r="H113" s="15">
+        <v>24233248</v>
+      </c>
+      <c r="I113" s="15">
+        <v>29569670</v>
+      </c>
+      <c r="J113" s="15">
         <v>36199550</v>
       </c>
-      <c r="F113" s="15">
+      <c r="K113" s="15">
         <v>37609936</v>
       </c>
-      <c r="G113" s="15">
+      <c r="L113" s="15">
         <v>37770034</v>
       </c>
-      <c r="H113" s="15">
+      <c r="M113" s="15">
         <v>33310570</v>
       </c>
-      <c r="I113" s="15">
+      <c r="N113" s="15">
         <v>26260378</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2988,8 +4451,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2998,8 +4466,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3008,10 +4481,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3030,8 +4508,23 @@
       <c r="I117" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3040,318 +4533,518 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>9382534</v>
+      </c>
+      <c r="F119" s="9">
+        <v>14113469</v>
+      </c>
+      <c r="G119" s="9">
+        <v>39801739</v>
+      </c>
+      <c r="H119" s="9">
+        <v>25622409</v>
+      </c>
+      <c r="I119" s="9">
+        <v>26963326</v>
+      </c>
+      <c r="J119" s="9">
         <v>29712123</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>27851735</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>26698476</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>10487557</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>36122298</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F120" s="11">
+        <v>0</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F122" s="11">
+        <v>1100</v>
       </c>
       <c r="G122" s="11">
         <v>0</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L122" s="11">
+        <v>0</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>426827</v>
+      </c>
+      <c r="F123" s="9">
+        <v>181487</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1004872</v>
+      </c>
+      <c r="H123" s="9">
+        <v>905851</v>
+      </c>
+      <c r="I123" s="9">
+        <v>304363</v>
+      </c>
+      <c r="J123" s="9">
         <v>301476</v>
       </c>
-      <c r="F123" s="9">
+      <c r="K123" s="9">
         <v>166892</v>
       </c>
-      <c r="G123" s="9">
+      <c r="L123" s="9">
         <v>24929</v>
       </c>
-      <c r="H123" s="9">
+      <c r="M123" s="9">
         <v>53144</v>
       </c>
-      <c r="I123" s="9">
+      <c r="N123" s="9">
         <v>1920362</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>26408</v>
+      </c>
+      <c r="F124" s="11">
+        <v>47407</v>
+      </c>
+      <c r="G124" s="11">
+        <v>57478</v>
+      </c>
+      <c r="H124" s="11">
+        <v>59943</v>
+      </c>
+      <c r="I124" s="11">
+        <v>27702</v>
+      </c>
+      <c r="J124" s="11">
         <v>127866</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>90955</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>89302</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>147704</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>213860</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
+        <v>46434</v>
+      </c>
+      <c r="F125" s="9">
+        <v>29912</v>
+      </c>
+      <c r="G125" s="9">
+        <v>15268</v>
+      </c>
+      <c r="H125" s="9">
+        <v>32336</v>
+      </c>
+      <c r="I125" s="9">
+        <v>40222</v>
+      </c>
+      <c r="J125" s="9">
         <v>59440</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>60008</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>33297</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>4824</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>98041</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F128" s="11">
+        <v>5736827</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M128" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N128" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>9281</v>
+      </c>
+      <c r="F129" s="9">
+        <v>11807</v>
+      </c>
+      <c r="G129" s="9">
+        <v>61973</v>
+      </c>
+      <c r="H129" s="9">
+        <v>30333</v>
+      </c>
+      <c r="I129" s="9">
+        <v>964</v>
+      </c>
+      <c r="J129" s="9">
         <v>11935</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>22163</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>44701</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>8617</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>-15578</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
+        <v>9891484</v>
+      </c>
+      <c r="F131" s="15">
+        <v>20122009</v>
+      </c>
+      <c r="G131" s="15">
+        <v>40941330</v>
+      </c>
+      <c r="H131" s="15">
+        <v>26650872</v>
+      </c>
+      <c r="I131" s="15">
+        <v>27336577</v>
+      </c>
+      <c r="J131" s="15">
         <v>30212840</v>
       </c>
-      <c r="F131" s="15">
+      <c r="K131" s="15">
         <v>28191753</v>
       </c>
-      <c r="G131" s="15">
+      <c r="L131" s="15">
         <v>26890705</v>
       </c>
-      <c r="H131" s="15">
+      <c r="M131" s="15">
         <v>10701846</v>
       </c>
-      <c r="I131" s="15">
+      <c r="N131" s="15">
         <v>38338983</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3360,8 +5053,13 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3370,8 +5068,13 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3380,10 +5083,15 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3402,8 +5110,23 @@
       <c r="I135" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3412,318 +5135,518 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>7703680</v>
+      </c>
+      <c r="F137" s="9">
+        <v>9964656</v>
+      </c>
+      <c r="G137" s="9">
+        <v>28573540</v>
+      </c>
+      <c r="H137" s="9">
+        <v>20146008</v>
+      </c>
+      <c r="I137" s="9">
+        <v>20418510</v>
+      </c>
+      <c r="J137" s="9">
         <v>28384480</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>27715298</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>31108858</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>17451318</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>37228137</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F138" s="11">
+        <v>0</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F140" s="11">
+        <v>1100</v>
       </c>
       <c r="G140" s="11">
         <v>0</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L140" s="11">
+        <v>0</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>287672</v>
+      </c>
+      <c r="F141" s="9">
+        <v>295856</v>
+      </c>
+      <c r="G141" s="9">
+        <v>829595</v>
+      </c>
+      <c r="H141" s="9">
+        <v>1047392</v>
+      </c>
+      <c r="I141" s="9">
+        <v>213167</v>
+      </c>
+      <c r="J141" s="9">
         <v>228998</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>114361</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>90720</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>133795</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>95444</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>32586</v>
+      </c>
+      <c r="F142" s="11">
+        <v>41423</v>
+      </c>
+      <c r="G142" s="11">
+        <v>54226</v>
+      </c>
+      <c r="H142" s="11">
+        <v>61982</v>
+      </c>
+      <c r="I142" s="11">
+        <v>31576</v>
+      </c>
+      <c r="J142" s="11">
         <v>117601</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>86007</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>111496</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>151909</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>183634</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>46742</v>
+      </c>
+      <c r="F143" s="9">
+        <v>29913</v>
+      </c>
+      <c r="G143" s="9">
+        <v>13924</v>
+      </c>
+      <c r="H143" s="9">
+        <v>33272</v>
+      </c>
+      <c r="I143" s="9">
+        <v>40630</v>
+      </c>
+      <c r="J143" s="9">
         <v>59440</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>60008</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>32411</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>5710</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>98041</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L144" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M144" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F145" s="9">
+        <v>0</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M145" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F146" s="11">
+        <v>5736827</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L146" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M146" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>9281</v>
+      </c>
+      <c r="F147" s="9">
+        <v>15970</v>
+      </c>
+      <c r="G147" s="9">
+        <v>30842</v>
+      </c>
+      <c r="H147" s="9">
+        <v>25796</v>
+      </c>
+      <c r="I147" s="9">
+        <v>2815</v>
+      </c>
+      <c r="J147" s="9">
         <v>11935</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>18225</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>6684</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>9307</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>22487</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M148" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
+        <v>8079961</v>
+      </c>
+      <c r="F149" s="15">
+        <v>16085745</v>
+      </c>
+      <c r="G149" s="15">
+        <v>29502127</v>
+      </c>
+      <c r="H149" s="15">
+        <v>21314450</v>
+      </c>
+      <c r="I149" s="15">
+        <v>20706698</v>
+      </c>
+      <c r="J149" s="15">
         <v>28802454</v>
       </c>
-      <c r="F149" s="15">
+      <c r="K149" s="15">
         <v>27993899</v>
       </c>
-      <c r="G149" s="15">
+      <c r="L149" s="15">
         <v>31350169</v>
       </c>
-      <c r="H149" s="15">
+      <c r="M149" s="15">
         <v>17752039</v>
       </c>
-      <c r="I149" s="15">
+      <c r="N149" s="15">
         <v>37627743</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3732,8 +5655,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3742,8 +5670,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3752,10 +5685,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3774,8 +5712,23 @@
       <c r="I153" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3784,318 +5737,518 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
+        <v>8599151</v>
+      </c>
+      <c r="F155" s="9">
+        <v>12747964</v>
+      </c>
+      <c r="G155" s="9">
+        <v>23976163</v>
+      </c>
+      <c r="H155" s="9">
+        <v>29452565</v>
+      </c>
+      <c r="I155" s="9">
+        <v>35997382</v>
+      </c>
+      <c r="J155" s="9">
         <v>37325025</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>37461461</v>
       </c>
-      <c r="G155" s="9">
+      <c r="L155" s="9">
         <v>33051079</v>
       </c>
-      <c r="H155" s="9">
+      <c r="M155" s="9">
         <v>26087319</v>
       </c>
-      <c r="I155" s="9">
+      <c r="N155" s="9">
         <v>24981479</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>27</v>
+      <c r="E156" s="11">
+        <v>0</v>
+      </c>
+      <c r="F156" s="11">
+        <v>0</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M156" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N156" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F158" s="11">
+        <v>0</v>
       </c>
       <c r="G158" s="11">
         <v>0</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L158" s="11">
+        <v>0</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
+        <v>139155</v>
+      </c>
+      <c r="F159" s="9">
+        <v>24786</v>
+      </c>
+      <c r="G159" s="9">
+        <v>200063</v>
+      </c>
+      <c r="H159" s="9">
+        <v>58522</v>
+      </c>
+      <c r="I159" s="9">
+        <v>149718</v>
+      </c>
+      <c r="J159" s="9">
         <v>222196</v>
       </c>
-      <c r="F159" s="9">
+      <c r="K159" s="9">
         <v>274727</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>208936</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>128285</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>1953203</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
+        <v>15310</v>
+      </c>
+      <c r="F160" s="11">
+        <v>21294</v>
+      </c>
+      <c r="G160" s="11">
+        <v>24546</v>
+      </c>
+      <c r="H160" s="11">
+        <v>22507</v>
+      </c>
+      <c r="I160" s="11">
+        <v>18633</v>
+      </c>
+      <c r="J160" s="11">
         <v>28898</v>
       </c>
-      <c r="F160" s="11">
+      <c r="K160" s="11">
         <v>33846</v>
       </c>
-      <c r="G160" s="11">
+      <c r="L160" s="11">
         <v>11652</v>
       </c>
-      <c r="H160" s="11">
+      <c r="M160" s="11">
         <v>7447</v>
       </c>
-      <c r="I160" s="11">
+      <c r="N160" s="11">
         <v>37673</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" s="9">
         <v>0</v>
       </c>
       <c r="G161" s="9">
+        <v>1344</v>
+      </c>
+      <c r="H161" s="9">
+        <v>408</v>
+      </c>
+      <c r="I161" s="9">
+        <v>0</v>
+      </c>
+      <c r="J161" s="9">
+        <v>0</v>
+      </c>
+      <c r="K161" s="9">
+        <v>0</v>
+      </c>
+      <c r="L161" s="9">
         <v>886</v>
       </c>
-      <c r="H161" s="9">
-        <v>0</v>
-      </c>
-      <c r="I161" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M161" s="9">
+        <v>0</v>
+      </c>
+      <c r="N161" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>27</v>
+      <c r="E163" s="9">
+        <v>0</v>
+      </c>
+      <c r="F163" s="9">
+        <v>0</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M163" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N163" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>27</v>
+      <c r="E164" s="11">
+        <v>0</v>
+      </c>
+      <c r="F164" s="11">
+        <v>0</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M164" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N164" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
+        <v>4163</v>
+      </c>
+      <c r="F165" s="9">
+        <v>0</v>
+      </c>
+      <c r="G165" s="9">
+        <v>31131</v>
+      </c>
+      <c r="H165" s="9">
+        <v>35668</v>
+      </c>
+      <c r="I165" s="9">
         <v>33817</v>
       </c>
-      <c r="F165" s="9">
+      <c r="J165" s="9">
+        <v>33817</v>
+      </c>
+      <c r="K165" s="9">
         <v>37755</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>38017</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>37327</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>37017</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K166" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L166" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M166" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15">
+        <v>8757780</v>
+      </c>
+      <c r="F167" s="15">
+        <v>12794044</v>
+      </c>
+      <c r="G167" s="15">
+        <v>24233247</v>
+      </c>
+      <c r="H167" s="15">
+        <v>29569670</v>
+      </c>
+      <c r="I167" s="15">
+        <v>36199550</v>
+      </c>
+      <c r="J167" s="15">
         <v>37609936</v>
       </c>
-      <c r="F167" s="15">
+      <c r="K167" s="15">
         <v>37807789</v>
       </c>
-      <c r="G167" s="15">
+      <c r="L167" s="15">
         <v>33310570</v>
       </c>
-      <c r="H167" s="15">
+      <c r="M167" s="15">
         <v>26260378</v>
       </c>
-      <c r="I167" s="15">
+      <c r="N167" s="15">
         <v>27009372</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4104,8 +6257,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4114,8 +6272,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4124,10 +6287,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -4146,8 +6314,23 @@
       <c r="I171" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M171" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4156,200 +6339,325 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
+        <v>11893140</v>
+      </c>
+      <c r="F173" s="9">
+        <v>14809143</v>
+      </c>
+      <c r="G173" s="9">
+        <v>18866056</v>
+      </c>
+      <c r="H173" s="9">
+        <v>26337159</v>
+      </c>
+      <c r="I173" s="9">
+        <v>29835232</v>
+      </c>
+      <c r="J173" s="9">
         <v>32752792</v>
       </c>
-      <c r="F173" s="9">
+      <c r="K173" s="9">
         <v>35286322</v>
       </c>
-      <c r="G173" s="9">
+      <c r="L173" s="9">
         <v>38703895</v>
       </c>
-      <c r="H173" s="9">
+      <c r="M173" s="9">
         <v>38645295</v>
       </c>
-      <c r="I173" s="9">
+      <c r="N173" s="9">
         <v>38392386</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L174" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M174" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N174" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D175" s="9"/>
-      <c r="E175" s="9">
+      <c r="E175" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" s="9">
+        <v>39952627</v>
+      </c>
+      <c r="G175" s="9">
+        <v>34520891</v>
+      </c>
+      <c r="H175" s="9">
+        <v>60097026</v>
+      </c>
+      <c r="I175" s="9">
+        <v>85809384</v>
+      </c>
+      <c r="J175" s="9">
         <v>64812987</v>
       </c>
-      <c r="F175" s="9">
+      <c r="K175" s="9">
         <v>77555323</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>86528189</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>86839568</v>
       </c>
-      <c r="I175" s="9">
+      <c r="N175" s="9">
         <v>87566553</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
+        <v>575007</v>
+      </c>
+      <c r="F176" s="11">
+        <v>577213</v>
+      </c>
+      <c r="G176" s="11">
+        <v>737225</v>
+      </c>
+      <c r="H176" s="11">
+        <v>983335</v>
+      </c>
+      <c r="I176" s="11">
+        <v>1019154</v>
+      </c>
+      <c r="J176" s="11">
         <v>1019813</v>
       </c>
-      <c r="F176" s="11">
+      <c r="K176" s="11">
         <v>1677970</v>
       </c>
-      <c r="G176" s="11">
+      <c r="L176" s="11">
         <v>1714155</v>
       </c>
-      <c r="H176" s="11">
+      <c r="M176" s="11">
         <v>2228342</v>
       </c>
-      <c r="I176" s="11">
+      <c r="N176" s="11">
         <v>3050799</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D177" s="9"/>
-      <c r="E177" s="9" t="s">
-        <v>27</v>
+      <c r="E177" s="9">
+        <v>3252632</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I177" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="H177" s="9">
+        <v>6686567</v>
+      </c>
+      <c r="I177" s="9">
+        <v>7698113</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M178" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N178" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
+        <v>9681395</v>
+      </c>
+      <c r="F179" s="9">
+        <v>9681395</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H179" s="9">
+        <v>16836668</v>
+      </c>
+      <c r="I179" s="9">
+        <v>71766600</v>
+      </c>
+      <c r="J179" s="9">
         <v>18590984</v>
       </c>
-      <c r="F179" s="9">
+      <c r="K179" s="9">
         <v>18590984</v>
       </c>
-      <c r="G179" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H179" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I179" s="9">
+      <c r="L179" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N179" s="9">
         <v>20982012</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L180" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M180" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N180" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4358,8 +6666,13 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4368,8 +6681,13 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4378,10 +6696,15 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B184" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -4400,8 +6723,23 @@
       <c r="I184" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M184" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N184" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4410,296 +6748,481 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9">
+        <v>16029696</v>
+      </c>
+      <c r="F186" s="9">
+        <v>21673217</v>
+      </c>
+      <c r="G186" s="9">
+        <v>35816314</v>
+      </c>
+      <c r="H186" s="9">
+        <v>32685605</v>
+      </c>
+      <c r="I186" s="9">
+        <v>41581195</v>
+      </c>
+      <c r="J186" s="9">
         <v>39348229</v>
       </c>
-      <c r="F186" s="9">
+      <c r="K186" s="9">
         <v>49806126</v>
       </c>
-      <c r="G186" s="9">
+      <c r="L186" s="9">
         <v>45187014</v>
       </c>
-      <c r="H186" s="9">
+      <c r="M186" s="9">
         <v>44531260</v>
       </c>
-      <c r="I186" s="9">
+      <c r="N186" s="9">
         <v>42798475</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D187" s="11"/>
       <c r="E187" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J187" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L187" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M187" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N187" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K188" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L188" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M188" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N188" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D189" s="11"/>
       <c r="E189" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F189" s="11">
+        <v>11000000</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J189" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L189" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M189" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9">
+        <v>31765052</v>
+      </c>
+      <c r="F190" s="9">
+        <v>55653787</v>
+      </c>
+      <c r="G190" s="9">
+        <v>65272621</v>
+      </c>
+      <c r="H190" s="9">
+        <v>67259504</v>
+      </c>
+      <c r="I190" s="9">
+        <v>69712093</v>
+      </c>
+      <c r="J190" s="9">
         <v>88617284</v>
       </c>
-      <c r="F190" s="9">
+      <c r="K190" s="9">
         <v>93759551</v>
       </c>
-      <c r="G190" s="9">
+      <c r="L190" s="9">
         <v>91650735</v>
       </c>
-      <c r="H190" s="9">
+      <c r="M190" s="9">
         <v>91156089</v>
       </c>
-      <c r="I190" s="9">
+      <c r="N190" s="9">
         <v>63537652</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="11">
+        <v>576506</v>
+      </c>
+      <c r="F191" s="11">
+        <v>790762</v>
+      </c>
+      <c r="G191" s="11">
+        <v>1015405</v>
+      </c>
+      <c r="H191" s="11">
+        <v>1019387</v>
+      </c>
+      <c r="I191" s="11">
+        <v>1019956</v>
+      </c>
+      <c r="J191" s="11">
         <v>2182274</v>
       </c>
-      <c r="F191" s="11">
+      <c r="K191" s="11">
         <v>1583616</v>
       </c>
-      <c r="G191" s="11">
+      <c r="L191" s="11">
         <v>2030837</v>
       </c>
-      <c r="H191" s="11">
+      <c r="M191" s="11">
         <v>3029080</v>
       </c>
-      <c r="I191" s="11">
+      <c r="N191" s="11">
         <v>3050001</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9">
+        <v>3976535</v>
+      </c>
+      <c r="F192" s="9">
+        <v>4557672</v>
+      </c>
+      <c r="G192" s="9">
+        <v>5978074</v>
+      </c>
+      <c r="H192" s="9">
+        <v>6340392</v>
+      </c>
+      <c r="I192" s="9">
+        <v>8180191</v>
+      </c>
+      <c r="J192" s="9">
         <v>8074990</v>
       </c>
-      <c r="F192" s="9">
+      <c r="K192" s="9">
         <v>9607429</v>
       </c>
-      <c r="G192" s="9">
+      <c r="L192" s="9">
         <v>9510711</v>
       </c>
-      <c r="H192" s="9">
+      <c r="M192" s="9">
         <v>17167260</v>
       </c>
-      <c r="I192" s="9">
+      <c r="N192" s="9">
         <v>14058073</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D193" s="11"/>
       <c r="E193" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L193" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M193" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N193" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L194" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M194" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N194" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F195" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F195" s="11">
+        <v>52290830</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L195" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M195" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9">
+        <v>9687891</v>
+      </c>
+      <c r="F196" s="9">
+        <v>16444290</v>
+      </c>
+      <c r="G196" s="9">
+        <v>16009558</v>
+      </c>
+      <c r="H196" s="9">
+        <v>263765217</v>
+      </c>
+      <c r="I196" s="9">
+        <v>658020</v>
+      </c>
+      <c r="J196" s="9">
         <v>18854660</v>
       </c>
-      <c r="F196" s="9">
+      <c r="K196" s="9">
         <v>21331088</v>
       </c>
-      <c r="G196" s="9">
+      <c r="L196" s="9">
         <v>19779204</v>
       </c>
-      <c r="H196" s="9">
+      <c r="M196" s="9">
         <v>27355556</v>
       </c>
-      <c r="I196" s="9">
+      <c r="N196" s="9">
         <v>14737938</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L197" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M197" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N197" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4708,8 +7231,13 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4718,8 +7246,13 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4728,10 +7261,15 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B201" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -4750,8 +7288,23 @@
       <c r="I201" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M201" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N201" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4760,296 +7313,481 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9">
+        <v>13134332</v>
+      </c>
+      <c r="F203" s="9">
+        <v>17917209</v>
+      </c>
+      <c r="G203" s="9">
+        <v>32594829</v>
+      </c>
+      <c r="H203" s="9">
+        <v>28491595</v>
+      </c>
+      <c r="I203" s="9">
+        <v>38054406</v>
+      </c>
+      <c r="J203" s="9">
         <v>35641253</v>
       </c>
-      <c r="F203" s="9">
+      <c r="K203" s="9">
         <v>42699356</v>
       </c>
-      <c r="G203" s="9">
+      <c r="L203" s="9">
         <v>44220062</v>
       </c>
-      <c r="H203" s="9">
+      <c r="M203" s="9">
         <v>42433784</v>
       </c>
-      <c r="I203" s="9">
+      <c r="N203" s="9">
         <v>48295732</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J204" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K204" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L204" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M204" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N204" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L205" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M205" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N205" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F206" s="11">
+        <v>11000000</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J206" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K206" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L206" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M206" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N206" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9">
+        <v>28900141</v>
+      </c>
+      <c r="F207" s="9">
+        <v>49096581</v>
+      </c>
+      <c r="G207" s="9">
+        <v>64893226</v>
+      </c>
+      <c r="H207" s="9">
+        <v>64994850</v>
+      </c>
+      <c r="I207" s="9">
+        <v>77855004</v>
+      </c>
+      <c r="J207" s="9">
         <v>80434844</v>
       </c>
-      <c r="F207" s="9">
+      <c r="K207" s="9">
         <v>77796599</v>
       </c>
-      <c r="G207" s="9">
+      <c r="L207" s="9">
         <v>87146974</v>
       </c>
-      <c r="H207" s="9">
+      <c r="M207" s="9">
         <v>87791995</v>
       </c>
-      <c r="I207" s="9">
+      <c r="N207" s="9">
         <v>86374661</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11">
+        <v>575186</v>
+      </c>
+      <c r="F208" s="11">
+        <v>719262</v>
+      </c>
+      <c r="G208" s="11">
+        <v>895883</v>
+      </c>
+      <c r="H208" s="11">
+        <v>1004880</v>
+      </c>
+      <c r="I208" s="11">
+        <v>1019436</v>
+      </c>
+      <c r="J208" s="11">
         <v>1971782</v>
       </c>
-      <c r="F208" s="11">
+      <c r="K208" s="11">
         <v>1566270</v>
       </c>
-      <c r="G208" s="11">
+      <c r="L208" s="11">
         <v>1906273</v>
       </c>
-      <c r="H208" s="11">
+      <c r="M208" s="11">
         <v>2946828</v>
       </c>
-      <c r="I208" s="11">
+      <c r="N208" s="11">
         <v>3049993</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9">
+        <v>3970608</v>
+      </c>
+      <c r="F209" s="9">
+        <v>4557824</v>
+      </c>
+      <c r="G209" s="9">
+        <v>5917552</v>
+      </c>
+      <c r="H209" s="9">
+        <v>6339939</v>
+      </c>
+      <c r="I209" s="9">
+        <v>8175050</v>
+      </c>
+      <c r="J209" s="9">
         <v>8074990</v>
       </c>
-      <c r="F209" s="9">
+      <c r="K209" s="9">
         <v>9607429</v>
       </c>
-      <c r="G209" s="9">
+      <c r="L209" s="9">
         <v>9479672</v>
       </c>
-      <c r="H209" s="9">
+      <c r="M209" s="9">
         <v>15730028</v>
       </c>
-      <c r="I209" s="9">
+      <c r="N209" s="9">
         <v>14058073</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K210" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L210" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M210" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N210" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H211" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J211" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K211" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L211" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M211" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N211" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F212" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F212" s="11">
+        <v>52290830</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J212" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K212" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L212" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M212" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N212" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
+        <v>9687891</v>
+      </c>
+      <c r="F213" s="9">
+        <v>13911150</v>
+      </c>
+      <c r="G213" s="9">
+        <v>15253215</v>
+      </c>
+      <c r="H213" s="9">
+        <v>17584185</v>
+      </c>
+      <c r="I213" s="9">
+        <v>19685315</v>
+      </c>
+      <c r="J213" s="9">
         <v>18854660</v>
       </c>
-      <c r="F213" s="9">
+      <c r="K213" s="9">
         <v>19429638</v>
       </c>
-      <c r="G213" s="9">
+      <c r="L213" s="9">
         <v>19716814</v>
       </c>
-      <c r="H213" s="9">
+      <c r="M213" s="9">
         <v>20365427</v>
       </c>
-      <c r="I213" s="9">
+      <c r="N213" s="9">
         <v>21726570</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H214" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J214" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K214" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L214" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M214" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N214" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -5058,8 +7796,13 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -5068,8 +7811,13 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -5078,10 +7826,15 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B218" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -5100,8 +7853,23 @@
       <c r="I218" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K218" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M218" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N218" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5110,272 +7878,442 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D220" s="9"/>
-      <c r="E220" s="9">
+      <c r="E220" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G220" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H220" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I220" s="9">
+        <v>32752792</v>
+      </c>
+      <c r="J220" s="9">
         <v>35286322</v>
       </c>
-      <c r="F220" s="9">
+      <c r="K220" s="9">
         <v>38703895</v>
       </c>
-      <c r="G220" s="9">
+      <c r="L220" s="9">
         <v>38645295</v>
       </c>
-      <c r="H220" s="9">
+      <c r="M220" s="9">
         <v>38392386</v>
       </c>
-      <c r="I220" s="9">
+      <c r="N220" s="9">
         <v>33190745</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D221" s="11"/>
       <c r="E221" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H221" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J221" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K221" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L221" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M221" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N221" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J222" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K222" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L222" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M222" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N222" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C223" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D223" s="11"/>
-      <c r="E223" s="11">
+      <c r="E223" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G223" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H223" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I223" s="11">
+        <v>64812987</v>
+      </c>
+      <c r="J223" s="11">
         <v>77555323</v>
       </c>
-      <c r="F223" s="11">
+      <c r="K223" s="11">
         <v>86528189</v>
       </c>
-      <c r="G223" s="11">
+      <c r="L223" s="11">
         <v>86839568</v>
       </c>
-      <c r="H223" s="11">
+      <c r="M223" s="11">
         <v>87566553</v>
       </c>
-      <c r="I223" s="11">
+      <c r="N223" s="11">
         <v>63863556</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D224" s="9"/>
-      <c r="E224" s="9">
+      <c r="E224" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I224" s="9">
+        <v>1019813</v>
+      </c>
+      <c r="J224" s="9">
         <v>1677970</v>
       </c>
-      <c r="F224" s="9">
+      <c r="K224" s="9">
         <v>1714155</v>
       </c>
-      <c r="G224" s="9">
+      <c r="L224" s="9">
         <v>2228342</v>
       </c>
-      <c r="H224" s="9">
+      <c r="M224" s="9">
         <v>3050799</v>
       </c>
-      <c r="I224" s="9">
+      <c r="N224" s="9">
         <v>3050198</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D225" s="11"/>
       <c r="E225" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G225" s="11">
+        <v>32</v>
+      </c>
+      <c r="G225" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I225" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J225" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K225" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L225" s="11">
         <v>10804878</v>
       </c>
-      <c r="H225" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I225" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M225" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N225" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J226" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K226" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L226" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M226" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N226" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H227" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J227" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K227" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L227" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M227" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N227" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J228" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K228" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L228" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M228" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N228" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D229" s="11"/>
-      <c r="E229" s="11">
+      <c r="E229" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G229" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I229" s="11">
         <v>18590984</v>
       </c>
-      <c r="F229" s="11">
+      <c r="J229" s="11">
+        <v>18590984</v>
+      </c>
+      <c r="K229" s="11">
         <v>19664063</v>
       </c>
-      <c r="G229" s="11">
+      <c r="L229" s="11">
         <v>19790213</v>
       </c>
-      <c r="H229" s="11">
+      <c r="M229" s="11">
         <v>20982012</v>
       </c>
-      <c r="I229" s="11">
+      <c r="N229" s="11">
         <v>23034848</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J230" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K230" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L230" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M230" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N230" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -5384,8 +8322,13 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -5394,8 +8337,13 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -5404,10 +8352,15 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+    </row>
+    <row r="234" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B234" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -5426,8 +8379,23 @@
       <c r="I234" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K234" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M234" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N234" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -5436,10 +8404,15 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
@@ -5458,10 +8431,25 @@
       <c r="I236" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="9">
+        <v>0</v>
+      </c>
+      <c r="K236" s="9">
+        <v>0</v>
+      </c>
+      <c r="L236" s="9">
+        <v>0</v>
+      </c>
+      <c r="M236" s="9">
+        <v>0</v>
+      </c>
+      <c r="N236" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -5480,10 +8468,25 @@
       <c r="I237" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="11">
+        <v>0</v>
+      </c>
+      <c r="K237" s="11">
+        <v>0</v>
+      </c>
+      <c r="L237" s="11">
+        <v>0</v>
+      </c>
+      <c r="M237" s="11">
+        <v>0</v>
+      </c>
+      <c r="N237" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
@@ -5502,10 +8505,25 @@
       <c r="I238" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="9">
+        <v>0</v>
+      </c>
+      <c r="K238" s="9">
+        <v>0</v>
+      </c>
+      <c r="L238" s="9">
+        <v>0</v>
+      </c>
+      <c r="M238" s="9">
+        <v>0</v>
+      </c>
+      <c r="N238" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -5524,98 +8542,173 @@
       <c r="I239" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="11">
+        <v>0</v>
+      </c>
+      <c r="K239" s="11">
+        <v>0</v>
+      </c>
+      <c r="L239" s="11">
+        <v>0</v>
+      </c>
+      <c r="M239" s="11">
+        <v>0</v>
+      </c>
+      <c r="N239" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9">
+        <v>3026127</v>
+      </c>
+      <c r="F240" s="9">
+        <v>2646266</v>
+      </c>
+      <c r="G240" s="9">
+        <v>5514454</v>
+      </c>
+      <c r="H240" s="9">
+        <v>15760764</v>
+      </c>
+      <c r="I240" s="9">
+        <v>-9553355</v>
+      </c>
+      <c r="J240" s="9">
         <v>8068620</v>
       </c>
-      <c r="F240" s="9">
+      <c r="K240" s="9">
         <v>-129325</v>
       </c>
-      <c r="G240" s="9">
+      <c r="L240" s="9">
         <v>3774772</v>
       </c>
-      <c r="H240" s="9">
+      <c r="M240" s="9">
         <v>3752323</v>
       </c>
-      <c r="I240" s="9">
+      <c r="N240" s="9">
         <v>4966969</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B241" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11">
+        <v>827022</v>
+      </c>
+      <c r="F241" s="11">
+        <v>635482</v>
+      </c>
+      <c r="G241" s="11">
+        <v>459417</v>
+      </c>
+      <c r="H241" s="11">
+        <v>1210782</v>
+      </c>
+      <c r="I241" s="11">
+        <v>3932950</v>
+      </c>
+      <c r="J241" s="11">
         <v>3436380</v>
       </c>
-      <c r="F241" s="11">
+      <c r="K241" s="11">
         <v>3921112</v>
       </c>
-      <c r="G241" s="11">
+      <c r="L241" s="11">
         <v>6778989</v>
       </c>
-      <c r="H241" s="11">
+      <c r="M241" s="11">
         <v>4009620</v>
       </c>
-      <c r="I241" s="11">
+      <c r="N241" s="11">
         <v>5706738</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B242" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9">
+        <v>134593</v>
+      </c>
+      <c r="F242" s="9">
+        <v>179248</v>
+      </c>
+      <c r="G242" s="9">
+        <v>179732</v>
+      </c>
+      <c r="H242" s="9">
+        <v>169126</v>
+      </c>
+      <c r="I242" s="9">
+        <v>166937</v>
+      </c>
+      <c r="J242" s="9">
         <v>162295</v>
       </c>
-      <c r="F242" s="9">
+      <c r="K242" s="9">
         <v>176237</v>
       </c>
-      <c r="G242" s="9">
+      <c r="L242" s="9">
         <v>149005</v>
       </c>
-      <c r="H242" s="9">
+      <c r="M242" s="9">
         <v>153884</v>
       </c>
-      <c r="I242" s="9">
+      <c r="N242" s="9">
         <v>156329</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B243" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11">
+        <v>473210</v>
+      </c>
+      <c r="F243" s="11">
+        <v>560817</v>
+      </c>
+      <c r="G243" s="11">
+        <v>772774</v>
+      </c>
+      <c r="H243" s="11">
+        <v>926832</v>
+      </c>
+      <c r="I243" s="11">
+        <v>1569581</v>
+      </c>
+      <c r="J243" s="11">
         <v>216286</v>
       </c>
-      <c r="F243" s="11">
+      <c r="K243" s="11">
         <v>1077302</v>
       </c>
-      <c r="G243" s="11">
+      <c r="L243" s="11">
         <v>1755453</v>
       </c>
-      <c r="H243" s="11">
+      <c r="M243" s="11">
         <v>1317736</v>
       </c>
-      <c r="I243" s="11">
+      <c r="N243" s="11">
         <v>1279252</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B244" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -5634,52 +8727,97 @@
       <c r="I244" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="9">
+        <v>0</v>
+      </c>
+      <c r="K244" s="9">
+        <v>0</v>
+      </c>
+      <c r="L244" s="9">
+        <v>0</v>
+      </c>
+      <c r="M244" s="9">
+        <v>0</v>
+      </c>
+      <c r="N244" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B245" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11">
+        <v>1370055</v>
+      </c>
+      <c r="F245" s="11">
+        <v>3971874</v>
+      </c>
+      <c r="G245" s="11">
+        <v>1528958</v>
+      </c>
+      <c r="H245" s="11">
+        <v>1503640</v>
+      </c>
+      <c r="I245" s="11">
+        <v>1632274</v>
+      </c>
+      <c r="J245" s="11">
         <v>3333943</v>
       </c>
-      <c r="F245" s="11">
+      <c r="K245" s="11">
         <v>5191436</v>
       </c>
-      <c r="G245" s="11">
+      <c r="L245" s="11">
         <v>2593545</v>
       </c>
-      <c r="H245" s="11">
+      <c r="M245" s="11">
         <v>4059770</v>
       </c>
-      <c r="I245" s="11">
+      <c r="N245" s="11">
         <v>5054737</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B246" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="15">
+        <v>5831007</v>
+      </c>
+      <c r="F246" s="15">
+        <v>7993687</v>
+      </c>
+      <c r="G246" s="15">
+        <v>8455335</v>
+      </c>
+      <c r="H246" s="15">
+        <v>19571144</v>
+      </c>
+      <c r="I246" s="15">
+        <v>-2251613</v>
+      </c>
+      <c r="J246" s="15">
         <v>15217524</v>
       </c>
-      <c r="F246" s="15">
+      <c r="K246" s="15">
         <v>10236762</v>
       </c>
-      <c r="G246" s="15">
+      <c r="L246" s="15">
         <v>15051764</v>
       </c>
-      <c r="H246" s="15">
+      <c r="M246" s="15">
         <v>13293333</v>
       </c>
-      <c r="I246" s="15">
+      <c r="N246" s="15">
         <v>17164025</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -5688,8 +8826,13 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -5698,8 +8841,13 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+    </row>
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -5708,10 +8856,15 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
-    </row>
-    <row r="250" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+    </row>
+    <row r="250" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B250" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -5720,8 +8873,13 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
-    </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -5730,13 +8888,18 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+    </row>
+    <row r="252" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B252" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -5744,123 +8907,128 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+    </row>
+    <row r="253" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B253" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B254" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B255" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B256" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
